--- a/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业年末从业人数.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业年末从业人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,911 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90438</v>
+        <v>132789</v>
       </c>
       <c r="C2" t="n">
-        <v>7057</v>
+        <v>8842</v>
       </c>
       <c r="D2" t="n">
-        <v>282806</v>
+        <v>333199</v>
       </c>
       <c r="E2" t="n">
-        <v>110532</v>
+        <v>118234</v>
       </c>
       <c r="F2" t="n">
-        <v>354560</v>
+        <v>418410</v>
       </c>
       <c r="G2" t="n">
-        <v>170135</v>
+        <v>189277</v>
       </c>
       <c r="H2" t="n">
-        <v>72293</v>
+        <v>91725</v>
       </c>
       <c r="I2" t="n">
-        <v>238296</v>
+        <v>291925</v>
       </c>
       <c r="J2" t="n">
-        <v>178312</v>
+        <v>201759</v>
       </c>
       <c r="K2" t="n">
-        <v>228811</v>
+        <v>259203</v>
       </c>
       <c r="L2" t="n">
-        <v>715029</v>
+        <v>969237</v>
       </c>
       <c r="M2" t="n">
-        <v>452125</v>
+        <v>667062</v>
       </c>
       <c r="N2" t="n">
-        <v>995825</v>
+        <v>1057098</v>
       </c>
       <c r="O2" t="n">
-        <v>270582</v>
+        <v>304847</v>
       </c>
       <c r="P2" t="n">
-        <v>2138999</v>
+        <v>2402072</v>
       </c>
       <c r="Q2" t="n">
-        <v>272617</v>
+        <v>322320</v>
       </c>
       <c r="R2" t="n">
-        <v>57255</v>
+        <v>64502</v>
       </c>
       <c r="S2" t="n">
-        <v>1003196</v>
+        <v>1208456</v>
       </c>
       <c r="T2" t="n">
-        <v>51131</v>
+        <v>52948</v>
       </c>
       <c r="U2" t="n">
-        <v>7590</v>
+        <v>15310</v>
       </c>
       <c r="V2" t="n">
-        <v>125826</v>
+        <v>171318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103513</v>
+        <v>130195</v>
       </c>
       <c r="C3" t="n">
-        <v>8073</v>
+        <v>12266</v>
       </c>
       <c r="D3" t="n">
-        <v>288837</v>
+        <v>345262</v>
       </c>
       <c r="E3" t="n">
-        <v>116532</v>
+        <v>103342</v>
       </c>
       <c r="F3" t="n">
-        <v>344269</v>
+        <v>475146</v>
       </c>
       <c r="G3" t="n">
-        <v>176411</v>
+        <v>189812</v>
       </c>
       <c r="H3" t="n">
-        <v>71519</v>
+        <v>113061</v>
       </c>
       <c r="I3" t="n">
-        <v>231453</v>
+        <v>331443</v>
       </c>
       <c r="J3" t="n">
-        <v>168799</v>
+        <v>231558</v>
       </c>
       <c r="K3" t="n">
-        <v>227081</v>
+        <v>274012</v>
       </c>
       <c r="L3" t="n">
-        <v>783686</v>
+        <v>1140085</v>
       </c>
       <c r="M3" t="n">
-        <v>519738</v>
+        <v>818953</v>
       </c>
       <c r="N3" t="n">
-        <v>991153</v>
+        <v>1023497</v>
       </c>
       <c r="O3" t="n">
-        <v>260927</v>
+        <v>346139</v>
       </c>
       <c r="P3" t="n">
-        <v>2182122</v>
+        <v>2332920</v>
       </c>
       <c r="Q3" t="n">
-        <v>277574</v>
+        <v>332919</v>
       </c>
       <c r="R3" t="n">
-        <v>56640</v>
+        <v>74856</v>
       </c>
       <c r="S3" t="n">
-        <v>1064868</v>
+        <v>1178236</v>
       </c>
       <c r="T3" t="n">
-        <v>46627</v>
+        <v>59075</v>
       </c>
       <c r="U3" t="n">
-        <v>8894</v>
+        <v>26615</v>
       </c>
       <c r="V3" t="n">
-        <v>155779</v>
+        <v>203098</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132789</v>
+        <v>153474</v>
       </c>
       <c r="C4" t="n">
-        <v>8842</v>
+        <v>14323</v>
       </c>
       <c r="D4" t="n">
-        <v>333199</v>
+        <v>390003</v>
       </c>
       <c r="E4" t="n">
-        <v>118234</v>
+        <v>122527</v>
       </c>
       <c r="F4" t="n">
-        <v>418410</v>
+        <v>470025</v>
       </c>
       <c r="G4" t="n">
-        <v>189277</v>
+        <v>218309</v>
       </c>
       <c r="H4" t="n">
-        <v>91725</v>
+        <v>142791</v>
       </c>
       <c r="I4" t="n">
-        <v>291925</v>
+        <v>235634</v>
       </c>
       <c r="J4" t="n">
-        <v>201759</v>
+        <v>293104</v>
       </c>
       <c r="K4" t="n">
-        <v>259203</v>
+        <v>302386</v>
       </c>
       <c r="L4" t="n">
-        <v>969237</v>
+        <v>1334850</v>
       </c>
       <c r="M4" t="n">
-        <v>667062</v>
+        <v>982322</v>
       </c>
       <c r="N4" t="n">
-        <v>1057098</v>
+        <v>1072050</v>
       </c>
       <c r="O4" t="n">
-        <v>304847</v>
+        <v>441990</v>
       </c>
       <c r="P4" t="n">
-        <v>2402072</v>
+        <v>2485581</v>
       </c>
       <c r="Q4" t="n">
-        <v>322320</v>
+        <v>373790</v>
       </c>
       <c r="R4" t="n">
-        <v>64502</v>
+        <v>83820</v>
       </c>
       <c r="S4" t="n">
-        <v>1208456</v>
+        <v>1285229</v>
       </c>
       <c r="T4" t="n">
-        <v>52948</v>
+        <v>66048</v>
       </c>
       <c r="U4" t="n">
-        <v>15310</v>
+        <v>54603</v>
       </c>
       <c r="V4" t="n">
-        <v>171318</v>
+        <v>243793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>130195</v>
+        <v>198470</v>
       </c>
       <c r="C5" t="n">
-        <v>12266</v>
+        <v>16729</v>
       </c>
       <c r="D5" t="n">
-        <v>345262</v>
+        <v>430423</v>
       </c>
       <c r="E5" t="n">
-        <v>103342</v>
+        <v>123052</v>
       </c>
       <c r="F5" t="n">
-        <v>475146</v>
+        <v>483502</v>
       </c>
       <c r="G5" t="n">
-        <v>189812</v>
+        <v>251432</v>
       </c>
       <c r="H5" t="n">
-        <v>113061</v>
+        <v>165436</v>
       </c>
       <c r="I5" t="n">
-        <v>331443</v>
+        <v>212845</v>
       </c>
       <c r="J5" t="n">
-        <v>231558</v>
+        <v>337336</v>
       </c>
       <c r="K5" t="n">
-        <v>274012</v>
+        <v>328674</v>
       </c>
       <c r="L5" t="n">
-        <v>1140085</v>
+        <v>1534216</v>
       </c>
       <c r="M5" t="n">
-        <v>818953</v>
+        <v>1149350</v>
       </c>
       <c r="N5" t="n">
-        <v>1023497</v>
+        <v>1178606</v>
       </c>
       <c r="O5" t="n">
-        <v>346139</v>
+        <v>517542</v>
       </c>
       <c r="P5" t="n">
-        <v>2332920</v>
+        <v>2660357</v>
       </c>
       <c r="Q5" t="n">
-        <v>332919</v>
+        <v>408138</v>
       </c>
       <c r="R5" t="n">
-        <v>74856</v>
+        <v>83643</v>
       </c>
       <c r="S5" t="n">
-        <v>1178236</v>
+        <v>1340797</v>
       </c>
       <c r="T5" t="n">
-        <v>59075</v>
+        <v>71355</v>
       </c>
       <c r="U5" t="n">
-        <v>26615</v>
+        <v>49833</v>
       </c>
       <c r="V5" t="n">
-        <v>203098</v>
+        <v>312066</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153474</v>
+        <v>209713</v>
       </c>
       <c r="C6" t="n">
-        <v>14323</v>
+        <v>14539</v>
       </c>
       <c r="D6" t="n">
-        <v>390003</v>
+        <v>467017</v>
       </c>
       <c r="E6" t="n">
-        <v>122527</v>
+        <v>119777</v>
       </c>
       <c r="F6" t="n">
-        <v>470025</v>
+        <v>497147</v>
       </c>
       <c r="G6" t="n">
-        <v>218309</v>
+        <v>251244</v>
       </c>
       <c r="H6" t="n">
-        <v>142791</v>
+        <v>196426</v>
       </c>
       <c r="I6" t="n">
-        <v>235634</v>
+        <v>213606</v>
       </c>
       <c r="J6" t="n">
-        <v>293104</v>
+        <v>356637</v>
       </c>
       <c r="K6" t="n">
-        <v>302386</v>
+        <v>331668</v>
       </c>
       <c r="L6" t="n">
-        <v>1334850</v>
+        <v>1632092</v>
       </c>
       <c r="M6" t="n">
-        <v>982322</v>
+        <v>1243087</v>
       </c>
       <c r="N6" t="n">
-        <v>1072050</v>
+        <v>1177302</v>
       </c>
       <c r="O6" t="n">
-        <v>441990</v>
+        <v>555364</v>
       </c>
       <c r="P6" t="n">
-        <v>2485581</v>
+        <v>2671293</v>
       </c>
       <c r="Q6" t="n">
-        <v>373790</v>
+        <v>442507</v>
       </c>
       <c r="R6" t="n">
-        <v>83820</v>
+        <v>84582</v>
       </c>
       <c r="S6" t="n">
-        <v>1285229</v>
+        <v>1354891</v>
       </c>
       <c r="T6" t="n">
-        <v>66048</v>
+        <v>74437</v>
       </c>
       <c r="U6" t="n">
-        <v>54603</v>
+        <v>78885</v>
       </c>
       <c r="V6" t="n">
-        <v>243793</v>
+        <v>338582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198470</v>
+        <v>210233</v>
       </c>
       <c r="C7" t="n">
-        <v>16729</v>
+        <v>15737</v>
       </c>
       <c r="D7" t="n">
-        <v>430423</v>
+        <v>497770</v>
       </c>
       <c r="E7" t="n">
-        <v>123052</v>
+        <v>113472</v>
       </c>
       <c r="F7" t="n">
-        <v>483502</v>
+        <v>503325</v>
       </c>
       <c r="G7" t="n">
-        <v>251432</v>
+        <v>240169</v>
       </c>
       <c r="H7" t="n">
-        <v>165436</v>
+        <v>215976</v>
       </c>
       <c r="I7" t="n">
-        <v>212845</v>
+        <v>194026</v>
       </c>
       <c r="J7" t="n">
-        <v>337336</v>
+        <v>365549</v>
       </c>
       <c r="K7" t="n">
-        <v>328674</v>
+        <v>334168</v>
       </c>
       <c r="L7" t="n">
-        <v>1534216</v>
+        <v>1627717</v>
       </c>
       <c r="M7" t="n">
-        <v>1149350</v>
+        <v>1238930</v>
       </c>
       <c r="N7" t="n">
-        <v>1178606</v>
+        <v>1144471</v>
       </c>
       <c r="O7" t="n">
-        <v>517542</v>
+        <v>567492</v>
       </c>
       <c r="P7" t="n">
-        <v>2660357</v>
+        <v>2600615</v>
       </c>
       <c r="Q7" t="n">
-        <v>408138</v>
+        <v>478975</v>
       </c>
       <c r="R7" t="n">
-        <v>83643</v>
+        <v>106029</v>
       </c>
       <c r="S7" t="n">
-        <v>1340797</v>
+        <v>1320379</v>
       </c>
       <c r="T7" t="n">
-        <v>71355</v>
+        <v>75330</v>
       </c>
       <c r="U7" t="n">
-        <v>49833</v>
+        <v>103022</v>
       </c>
       <c r="V7" t="n">
-        <v>312066</v>
+        <v>365077</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>209713</v>
+        <v>222214</v>
       </c>
       <c r="C8" t="n">
-        <v>14539</v>
+        <v>18191</v>
       </c>
       <c r="D8" t="n">
-        <v>467017</v>
+        <v>550440</v>
       </c>
       <c r="E8" t="n">
-        <v>119777</v>
+        <v>115040</v>
       </c>
       <c r="F8" t="n">
-        <v>497147</v>
+        <v>523631</v>
       </c>
       <c r="G8" t="n">
-        <v>251244</v>
+        <v>244886</v>
       </c>
       <c r="H8" t="n">
-        <v>196426</v>
+        <v>286922</v>
       </c>
       <c r="I8" t="n">
-        <v>213606</v>
+        <v>184289</v>
       </c>
       <c r="J8" t="n">
-        <v>356637</v>
+        <v>375899</v>
       </c>
       <c r="K8" t="n">
-        <v>331668</v>
+        <v>347139</v>
       </c>
       <c r="L8" t="n">
-        <v>1632092</v>
+        <v>1680732</v>
       </c>
       <c r="M8" t="n">
-        <v>1243087</v>
+        <v>1278880</v>
       </c>
       <c r="N8" t="n">
-        <v>1177302</v>
+        <v>1099630</v>
       </c>
       <c r="O8" t="n">
-        <v>555364</v>
+        <v>576838</v>
       </c>
       <c r="P8" t="n">
-        <v>2671293</v>
+        <v>2503674</v>
       </c>
       <c r="Q8" t="n">
-        <v>442507</v>
+        <v>531375</v>
       </c>
       <c r="R8" t="n">
-        <v>84582</v>
+        <v>132670</v>
       </c>
       <c r="S8" t="n">
-        <v>1354891</v>
+        <v>1272511</v>
       </c>
       <c r="T8" t="n">
-        <v>74437</v>
+        <v>77976</v>
       </c>
       <c r="U8" t="n">
-        <v>78885</v>
+        <v>176323</v>
       </c>
       <c r="V8" t="n">
-        <v>338582</v>
+        <v>387449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>210233</v>
+        <v>189519</v>
       </c>
       <c r="C9" t="n">
-        <v>15737</v>
+        <v>20384</v>
       </c>
       <c r="D9" t="n">
-        <v>497770</v>
+        <v>566911</v>
       </c>
       <c r="E9" t="n">
-        <v>113472</v>
+        <v>109756</v>
       </c>
       <c r="F9" t="n">
-        <v>503325</v>
+        <v>475706</v>
       </c>
       <c r="G9" t="n">
-        <v>240169</v>
+        <v>246230</v>
       </c>
       <c r="H9" t="n">
-        <v>215976</v>
+        <v>314404</v>
       </c>
       <c r="I9" t="n">
-        <v>194026</v>
+        <v>177258</v>
       </c>
       <c r="J9" t="n">
-        <v>365549</v>
+        <v>364940</v>
       </c>
       <c r="K9" t="n">
-        <v>334168</v>
+        <v>352433</v>
       </c>
       <c r="L9" t="n">
-        <v>1627717</v>
+        <v>1725171</v>
       </c>
       <c r="M9" t="n">
-        <v>1238930</v>
+        <v>1322300</v>
       </c>
       <c r="N9" t="n">
-        <v>1144471</v>
+        <v>1002203</v>
       </c>
       <c r="O9" t="n">
-        <v>567492</v>
+        <v>563332</v>
       </c>
       <c r="P9" t="n">
-        <v>2600615</v>
+        <v>2314872</v>
       </c>
       <c r="Q9" t="n">
-        <v>478975</v>
+        <v>549182</v>
       </c>
       <c r="R9" t="n">
-        <v>106029</v>
+        <v>102586</v>
       </c>
       <c r="S9" t="n">
-        <v>1320379</v>
+        <v>1195278</v>
       </c>
       <c r="T9" t="n">
-        <v>75330</v>
+        <v>78374</v>
       </c>
       <c r="U9" t="n">
-        <v>103022</v>
+        <v>214639</v>
       </c>
       <c r="V9" t="n">
-        <v>365077</v>
+        <v>378631</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222214</v>
+        <v>155931</v>
       </c>
       <c r="C10" t="n">
-        <v>18191</v>
+        <v>17205</v>
       </c>
       <c r="D10" t="n">
-        <v>550440</v>
+        <v>608088</v>
       </c>
       <c r="E10" t="n">
-        <v>115040</v>
+        <v>112573</v>
       </c>
       <c r="F10" t="n">
-        <v>523631</v>
+        <v>439352</v>
       </c>
       <c r="G10" t="n">
-        <v>244886</v>
+        <v>243135</v>
       </c>
       <c r="H10" t="n">
-        <v>286922</v>
+        <v>283585</v>
       </c>
       <c r="I10" t="n">
-        <v>184289</v>
+        <v>177320</v>
       </c>
       <c r="J10" t="n">
-        <v>375899</v>
+        <v>371289</v>
       </c>
       <c r="K10" t="n">
-        <v>347139</v>
+        <v>341075</v>
       </c>
       <c r="L10" t="n">
-        <v>1680732</v>
+        <v>1701595</v>
       </c>
       <c r="M10" t="n">
-        <v>1278880</v>
+        <v>1285963</v>
       </c>
       <c r="N10" t="n">
-        <v>1099630</v>
+        <v>913307</v>
       </c>
       <c r="O10" t="n">
-        <v>576838</v>
+        <v>578254</v>
       </c>
       <c r="P10" t="n">
-        <v>2503674</v>
+        <v>2196318</v>
       </c>
       <c r="Q10" t="n">
-        <v>531375</v>
+        <v>553993</v>
       </c>
       <c r="R10" t="n">
-        <v>132670</v>
+        <v>82746</v>
       </c>
       <c r="S10" t="n">
-        <v>1272511</v>
+        <v>1177373</v>
       </c>
       <c r="T10" t="n">
-        <v>77976</v>
+        <v>74757</v>
       </c>
       <c r="U10" t="n">
-        <v>176323</v>
+        <v>200519</v>
       </c>
       <c r="V10" t="n">
-        <v>387449</v>
+        <v>370083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>189519</v>
+        <v>134324</v>
       </c>
       <c r="C11" t="n">
-        <v>20384</v>
+        <v>15988</v>
       </c>
       <c r="D11" t="n">
-        <v>566911</v>
+        <v>653551</v>
       </c>
       <c r="E11" t="n">
-        <v>109756</v>
+        <v>111733</v>
       </c>
       <c r="F11" t="n">
-        <v>475706</v>
+        <v>395153</v>
       </c>
       <c r="G11" t="n">
-        <v>246230</v>
+        <v>241136</v>
       </c>
       <c r="H11" t="n">
-        <v>314404</v>
+        <v>333371</v>
       </c>
       <c r="I11" t="n">
-        <v>177258</v>
+        <v>165961</v>
       </c>
       <c r="J11" t="n">
-        <v>364940</v>
+        <v>364086</v>
       </c>
       <c r="K11" t="n">
-        <v>352433</v>
+        <v>334035</v>
       </c>
       <c r="L11" t="n">
-        <v>1725171</v>
+        <v>1619124</v>
       </c>
       <c r="M11" t="n">
-        <v>1322300</v>
+        <v>1209208</v>
       </c>
       <c r="N11" t="n">
-        <v>1002203</v>
+        <v>852554</v>
       </c>
       <c r="O11" t="n">
-        <v>563332</v>
+        <v>586586</v>
       </c>
       <c r="P11" t="n">
-        <v>2314872</v>
+        <v>2125543</v>
       </c>
       <c r="Q11" t="n">
-        <v>549182</v>
+        <v>595284</v>
       </c>
       <c r="R11" t="n">
-        <v>102586</v>
+        <v>61911</v>
       </c>
       <c r="S11" t="n">
-        <v>1195278</v>
+        <v>1161965</v>
       </c>
       <c r="T11" t="n">
-        <v>78374</v>
+        <v>78043</v>
       </c>
       <c r="U11" t="n">
-        <v>214639</v>
+        <v>250474</v>
       </c>
       <c r="V11" t="n">
-        <v>378631</v>
+        <v>364766</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>155931</v>
+        <v>127827</v>
       </c>
       <c r="C12" t="n">
-        <v>17205</v>
+        <v>14542</v>
       </c>
       <c r="D12" t="n">
-        <v>608088</v>
+        <v>719636</v>
       </c>
       <c r="E12" t="n">
-        <v>112573</v>
+        <v>108154</v>
       </c>
       <c r="F12" t="n">
-        <v>439352</v>
+        <v>354942</v>
       </c>
       <c r="G12" t="n">
-        <v>243135</v>
+        <v>235318</v>
       </c>
       <c r="H12" t="n">
-        <v>283585</v>
+        <v>387439</v>
       </c>
       <c r="I12" t="n">
-        <v>177320</v>
+        <v>136494</v>
       </c>
       <c r="J12" t="n">
-        <v>371289</v>
+        <v>315808</v>
       </c>
       <c r="K12" t="n">
-        <v>341075</v>
+        <v>358273</v>
       </c>
       <c r="L12" t="n">
-        <v>1701595</v>
+        <v>1637209</v>
       </c>
       <c r="M12" t="n">
-        <v>1285963</v>
+        <v>1209152</v>
       </c>
       <c r="N12" t="n">
-        <v>913307</v>
+        <v>797331</v>
       </c>
       <c r="O12" t="n">
-        <v>578254</v>
+        <v>520581</v>
       </c>
       <c r="P12" t="n">
-        <v>2196318</v>
+        <v>2041141</v>
       </c>
       <c r="Q12" t="n">
-        <v>553993</v>
+        <v>664129</v>
       </c>
       <c r="R12" t="n">
-        <v>82746</v>
+        <v>61587</v>
       </c>
       <c r="S12" t="n">
-        <v>1177373</v>
+        <v>1141911</v>
       </c>
       <c r="T12" t="n">
-        <v>74757</v>
+        <v>79766</v>
       </c>
       <c r="U12" t="n">
-        <v>200519</v>
+        <v>312732</v>
       </c>
       <c r="V12" t="n">
-        <v>370083</v>
+        <v>368302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134324</v>
+        <v>129540</v>
       </c>
       <c r="C13" t="n">
-        <v>15988</v>
+        <v>14596</v>
       </c>
       <c r="D13" t="n">
-        <v>653551</v>
+        <v>776316</v>
       </c>
       <c r="E13" t="n">
-        <v>111733</v>
+        <v>111651</v>
       </c>
       <c r="F13" t="n">
-        <v>395153</v>
+        <v>353779</v>
       </c>
       <c r="G13" t="n">
-        <v>241136</v>
+        <v>243625</v>
       </c>
       <c r="H13" t="n">
-        <v>333371</v>
+        <v>421858</v>
       </c>
       <c r="I13" t="n">
-        <v>165961</v>
+        <v>130057</v>
       </c>
       <c r="J13" t="n">
-        <v>364086</v>
+        <v>299232</v>
       </c>
       <c r="K13" t="n">
-        <v>334035</v>
+        <v>385478</v>
       </c>
       <c r="L13" t="n">
-        <v>1619124</v>
+        <v>1716450</v>
       </c>
       <c r="M13" t="n">
-        <v>1209208</v>
+        <v>1263462</v>
       </c>
       <c r="N13" t="n">
-        <v>852554</v>
+        <v>733098</v>
       </c>
       <c r="O13" t="n">
-        <v>586586</v>
+        <v>510756</v>
       </c>
       <c r="P13" t="n">
-        <v>2125543</v>
+        <v>1972142</v>
       </c>
       <c r="Q13" t="n">
-        <v>595284</v>
+        <v>716286</v>
       </c>
       <c r="R13" t="n">
-        <v>61911</v>
+        <v>64807</v>
       </c>
       <c r="S13" t="n">
-        <v>1161965</v>
+        <v>1135886</v>
       </c>
       <c r="T13" t="n">
-        <v>78043</v>
+        <v>88227</v>
       </c>
       <c r="U13" t="n">
-        <v>250474</v>
+        <v>349226</v>
       </c>
       <c r="V13" t="n">
-        <v>364766</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>127827</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14542</v>
-      </c>
-      <c r="D14" t="n">
-        <v>719636</v>
-      </c>
-      <c r="E14" t="n">
-        <v>108154</v>
-      </c>
-      <c r="F14" t="n">
-        <v>354942</v>
-      </c>
-      <c r="G14" t="n">
-        <v>235318</v>
-      </c>
-      <c r="H14" t="n">
-        <v>387439</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136494</v>
-      </c>
-      <c r="J14" t="n">
-        <v>315808</v>
-      </c>
-      <c r="K14" t="n">
-        <v>358273</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1637209</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1209152</v>
-      </c>
-      <c r="N14" t="n">
-        <v>797331</v>
-      </c>
-      <c r="O14" t="n">
-        <v>520581</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2041141</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>664129</v>
-      </c>
-      <c r="R14" t="n">
-        <v>61587</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1141911</v>
-      </c>
-      <c r="T14" t="n">
-        <v>79766</v>
-      </c>
-      <c r="U14" t="n">
-        <v>312732</v>
-      </c>
-      <c r="V14" t="n">
-        <v>368302</v>
+        <v>388338</v>
       </c>
     </row>
   </sheetData>
